--- a/matlab/logDataProcess/ipb1-40.xlsx
+++ b/matlab/logDataProcess/ipb1-40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>reactor</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>031417</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1045,21 +1051,22 @@
     <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,43 +1077,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1116,44 +1126,47 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
       <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>1.6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1163,44 +1176,47 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
       <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.9</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>1.6</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>187</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1210,44 +1226,47 @@
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>11</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
       <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>0.9</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>1.6</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>187</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1257,44 +1276,47 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
       <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>0.9</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>1.6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>187</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1304,44 +1326,47 @@
       <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>19</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>0.9</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>1.6</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>187</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1351,44 +1376,47 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>22</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>0.9</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>1.6</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>187</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1398,44 +1426,47 @@
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>23</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>25</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>0.9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>1.6</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>187</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1445,44 +1476,47 @@
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>27</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>29</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>1.6</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>187</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1492,44 +1526,47 @@
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>0.9</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>1.6</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>187</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1539,44 +1576,47 @@
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>7</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>0.9</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>1.6</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>187</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1586,44 +1626,47 @@
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>0.9</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>1.6</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>187</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1633,46 +1676,49 @@
       <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
       </c>
       <c r="F13" s="4">
         <v>12</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>1.6</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>187</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1682,46 +1728,49 @@
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="4">
-        <v>13</v>
       </c>
       <c r="F14" s="4">
         <v>13</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.9</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>1.6</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>187</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1731,44 +1780,47 @@
       <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.9</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>1.6</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>187</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1778,40 +1830,43 @@
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>18</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
       <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <v>0.9</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>1.6</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>187</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/matlab/logDataProcess/ipb1-40.xlsx
+++ b/matlab/logDataProcess/ipb1-40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>reactor</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D16"/>
+      <selection activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1057,16 +1060,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,25 +1102,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1148,25 +1155,28 @@
         <v>17</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1198,25 +1208,28 @@
         <v>17</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>187</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1248,25 +1261,28 @@
         <v>17</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.9</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.6</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>187</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1298,25 +1314,28 @@
         <v>17</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.6</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>187</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1348,25 +1367,28 @@
         <v>17</v>
       </c>
       <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>0.9</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>187</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1398,25 +1420,28 @@
         <v>17</v>
       </c>
       <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>0.9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.6</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>187</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1448,25 +1473,28 @@
         <v>17</v>
       </c>
       <c r="K8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>0.9</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.6</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>187</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1498,25 +1526,28 @@
         <v>17</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>187</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1548,25 +1579,28 @@
         <v>38</v>
       </c>
       <c r="K10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>0.9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.6</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>187</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1598,25 +1632,28 @@
         <v>38</v>
       </c>
       <c r="K11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>0.9</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>1.6</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>187</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1648,25 +1685,28 @@
         <v>38</v>
       </c>
       <c r="K12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>0.9</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>1.6</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>187</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1697,28 +1737,31 @@
       <c r="J13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.9</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>1.6</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>187</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1749,28 +1792,31 @@
       <c r="J14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>0.9</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>1.6</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>187</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1802,25 +1848,28 @@
         <v>38</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>0.9</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>1.6</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>187</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1852,21 +1901,24 @@
         <v>38</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.9</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>1.6</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>187</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
